--- a/MovieSpreadsheet.xlsx
+++ b/MovieSpreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jplov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jplov\Documents\GitHub\NextWatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F1527A-D8AC-4C0F-AEF7-9DB6199E3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582CD8D-D4D1-4C19-9C41-1F134ED57E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C5BFF9F-DD5F-42A5-B4A4-9F3B96010B11}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C5BFF9F-DD5F-42A5-B4A4-9F3B96010B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +615,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,10 +637,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,7 +991,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,68 +1463,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1993</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>98</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1845,68 +1853,68 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>1999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>81</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="4" t="s">
         <v>87</v>
       </c>
     </row>

--- a/MovieSpreadsheet.xlsx
+++ b/MovieSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jplov\Documents\GitHub\NextWatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582CD8D-D4D1-4C19-9C41-1F134ED57E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59182AD0-E936-472C-8196-A287F3243CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C5BFF9F-DD5F-42A5-B4A4-9F3B96010B11}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7C5BFF9F-DD5F-42A5-B4A4-9F3B96010B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
   <si>
     <t>Title</t>
   </si>
@@ -582,13 +582,193 @@
   </si>
   <si>
     <t>Kevin_Spacey</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/21_02/2012/1853728/l_1853728_7fb18a9f.jpg</t>
+  </si>
+  <si>
+    <t>Django_Unchained</t>
+  </si>
+  <si>
+    <t>Avengers_Infinity_War</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/20_12/2018/4154756/s_4154756_c3b270fa.jpg</t>
+  </si>
+  <si>
+    <t>SpiderMan:_Into_the_SpiderVerse</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/22_10/2018/4633694/l_spider-man-into-the-spider-verse-movie-poster_a7f62b30.jpeg</t>
+  </si>
+  <si>
+    <t>Inglourious_Basterds</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/22_12/2009/361748/s_inglourious-basterds-movie-poster_10cbca6a.jpg</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/20_05/2019/4154796/s_4154796_2542f70b.jpg</t>
+  </si>
+  <si>
+    <t>Avengers:_Endgame</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/22_05/2019/7286456/s_7286456_b64564c5.jpg</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/05_08/1983/0086190/s_41598_0086190_14861247.jpg</t>
+  </si>
+  <si>
+    <t>Star_Wars_Episode_VI_Return_of_the_Jedi</t>
+  </si>
+  <si>
+    <t>Reservoir_Dogs</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/06_09/1992/0105236/l_131358_0105236_d5700576.jpg</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/09_04/2009/1049413/s_1049413_0faf87e5.jpg</t>
+  </si>
+  <si>
+    <t>Die_Hard</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/06_08/1988/0095016/s_125455_0095016_ea4bd30e.jpg</t>
+  </si>
+  <si>
+    <t>Oppenheimer</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/24_03/2023/15398776/s_oppenheimer-movie-poster_28ad1035.jpg</t>
+  </si>
+  <si>
+    <t>The_Wolf_of_Wall_Street</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/13_11/2013/993846/s_993846_6b55e2ea.jpg</t>
+  </si>
+  <si>
+    <t>The_Truman_Show</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/06_08/1998/0120382/s_127905_0120382_a04d6482.jpg</t>
+  </si>
+  <si>
+    <t>Shutter_Island</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/09_08/2009/1130884/s_1130884_84200ccd.jpg</t>
+  </si>
+  <si>
+    <t>Jurassic_Park</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/05_08/1993/0107290/s_45298_0107290_be4e0db3.jpg</t>
+  </si>
+  <si>
+    <t>No_Country_for_Old_Men</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/07_07/2007/477348/s_477348_3696ca40.jpg</t>
+  </si>
+  <si>
+    <t>Kill_Bill:_Vol_1</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/08_09/2003/266697/s_266697_0c15185a.jpg</t>
+  </si>
+  <si>
+    <t>Monty_Python_and_the_Holy_Grail</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/13_12/1975/71853/s_71853_0c1d9dd2.jpg</t>
+  </si>
+  <si>
+    <t>Catch_Me_If_You_Can</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/05_07/2002/0264464/s_27763_0264464_1008a5ef.jpg</t>
+  </si>
+  <si>
+    <t>Dead_Poets_Society</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/09_01/1989/97165/s_97165_7d1ded90.jpg</t>
+  </si>
+  <si>
+    <t>SpiderMan:_No_Way_Home</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/25_05/2021/10872600/s_spider-man-no-way-home-movie-poster_469a5474.jpg</t>
+  </si>
+  <si>
+    <t>Gone_Girl</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/14_10/2014/2267998/s_2267998_4abdc3a9.jpg</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/07_11/2007/382932/s_382932_bcae738b.jpg</t>
+  </si>
+  <si>
+    <t>Monsters_Inc</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/13_06/2001/198781/s_198781_c7d40de2.jpg</t>
+  </si>
+  <si>
+    <t>How_to_Train_Your_Dragon</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/10_03/2010/892769/s_892769_59411b04.jpg</t>
+  </si>
+  <si>
+    <t>Ford_v_Ferrari</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/20_03/1995/114369/s_114369_ff13577f.jpg</t>
+  </si>
+  <si>
+    <t>Pirates_of_the_Caribbean:_The_Curse_of_the_Black_Pearl</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/10_01/2003/325980/s_325980_6a4da6c6.jpg</t>
+  </si>
+  <si>
+    <t>The_Incredibles</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/13_05/2004/317705/s_317705_09a9c903.jpg</t>
+  </si>
+  <si>
+    <t>Tenet</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/20_09/2020/6723592/s_6723592_46561c38.jpg</t>
+  </si>
+  <si>
+    <t>Oceans_Eleven</t>
+  </si>
+  <si>
+    <t>https://posters.movieposterdb.com/07_11/2001/240772/l_240772_fa59135a.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +780,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -634,17 +822,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -988,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18368BA5-FE1E-4277-BD99-A0BCDE5DBD83}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,68 +1653,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>1993</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>98</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1853,68 +2043,68 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>81</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2377,42 +2567,263 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
       <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V2:V15 V17:V18 V20:V34">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B45" r:id="rId1" xr:uid="{06C42543-5440-40B0-A666-6E9FE3B62257}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>